--- a/GA.csv.xlsx
+++ b/GA.csv.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/98fb94b0d5f3b2f3/Documentos/GitHub/testASISES/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tra19\OneDrive\Documentos\GitHub\testASISES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{09BFD6AF-5E25-4DCD-9AA7-23F4205C59E5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{09BFD6AF-5E25-4DCD-9AA7-23F4205C59E5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{31FEF5D4-0D03-4991-8E96-9CB9677C23EE}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5556" xr2:uid="{F476D390-02BB-4A5D-85E0-C6B68FBED915}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>nombre</t>
   </si>
@@ -40,6 +40,12 @@
   </si>
   <si>
     <t>juan 3</t>
+  </si>
+  <si>
+    <t>juan 4</t>
+  </si>
+  <si>
+    <t>jk</t>
   </si>
 </sst>
 </file>
@@ -391,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2386D399-21A0-4832-B348-8745EE1835B4}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -431,6 +437,22 @@
         <v>27</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
